--- a/branches/main/CodeSystem-prod-type-cs.xlsx
+++ b/branches/main/CodeSystem-prod-type-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-07T15:41:09+00:00</t>
+    <t>2022-05-09T12:09:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,7 +117,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>5</t>
+    <t>6</t>
   </si>
   <si>
     <t>Level</t>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Belgian Virtual Medicinal Product</t>
+  </si>
+  <si>
+    <t>ePI</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -559,6 +562,18 @@
       </c>
       <c r="D6" s="2"/>
     </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
